--- a/data/par/5.xlsx
+++ b/data/par/5.xlsx
@@ -481,175 +481,175 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>9.548580000000001e-07</v>
+        <v>0.0001194983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1000056266784668</v>
+        <v>0.1080062389373779</v>
       </c>
       <c r="B8" t="n">
-        <v>9.579120000000001e-07</v>
+        <v>0.0001193786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2030115127563477</v>
+        <v>0.2170124053955078</v>
       </c>
       <c r="B9" t="n">
-        <v>9.568776e-07</v>
+        <v>0.000119532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3100178241729736</v>
+        <v>0.3020172119140625</v>
       </c>
       <c r="B10" t="n">
-        <v>9.594561000000001e-07</v>
+        <v>0.0001194096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4030230045318604</v>
+        <v>0.4000229835510254</v>
       </c>
       <c r="B11" t="n">
-        <v>9.584136999999999e-07</v>
+        <v>0.000119381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5080292224884033</v>
+        <v>0.5110292434692383</v>
       </c>
       <c r="B12" t="n">
-        <v>9.607979999999999e-07</v>
+        <v>0.0001192954</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6130352020263672</v>
+        <v>0.60103440284729</v>
       </c>
       <c r="B13" t="n">
-        <v>9.596223000000001e-07</v>
+        <v>0.0001193195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7020399570465088</v>
+        <v>0.7080404758453369</v>
       </c>
       <c r="B14" t="n">
-        <v>9.576210000000001e-07</v>
+        <v>0.0001193851</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8090462684631348</v>
+        <v>0.8120465278625488</v>
       </c>
       <c r="B15" t="n">
-        <v>9.572781000000001e-07</v>
+        <v>0.0001193253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9140522480010986</v>
+        <v>0.9020516872406006</v>
       </c>
       <c r="B16" t="n">
-        <v>9.553082000000001e-07</v>
+        <v>0.0001193016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.002057552337646</v>
+        <v>1.001057386398315</v>
       </c>
       <c r="B17" t="n">
-        <v>9.558628999999999e-07</v>
+        <v>0.0001192768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.108063459396362</v>
+        <v>1.107063293457031</v>
       </c>
       <c r="B18" t="n">
-        <v>9.573531000000001e-07</v>
+        <v>0.0001193177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.212069272994995</v>
+        <v>1.211069345474243</v>
       </c>
       <c r="B19" t="n">
-        <v>9.565240000000001e-07</v>
+        <v>0.0001192659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.309074878692627</v>
+        <v>1.31807541847229</v>
       </c>
       <c r="B20" t="n">
-        <v>9.550215e-07</v>
+        <v>0.0001192823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.418081283569336</v>
+        <v>1.41408109664917</v>
       </c>
       <c r="B21" t="n">
-        <v>9.550348999999999e-07</v>
+        <v>0.0001191663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.515086889266968</v>
+        <v>1.505086183547974</v>
       </c>
       <c r="B22" t="n">
-        <v>9.544464000000001e-07</v>
+        <v>0.0001191311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.60509181022644</v>
+        <v>1.608091831207275</v>
       </c>
       <c r="B23" t="n">
-        <v>9.542981e-07</v>
+        <v>0.0001191101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.70109748840332</v>
+        <v>1.713098049163818</v>
       </c>
       <c r="B24" t="n">
-        <v>9.548670000000001e-07</v>
+        <v>0.0001191832</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.81010365486145</v>
+        <v>1.806103229522705</v>
       </c>
       <c r="B25" t="n">
-        <v>9.566669000000001e-07</v>
+        <v>0.0001190954</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.90510892868042</v>
+        <v>1.901108741760254</v>
       </c>
       <c r="B26" t="n">
-        <v>9.549236e-07</v>
+        <v>0.000118973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.005114793777466</v>
+        <v>2.012115240097046</v>
       </c>
       <c r="B27" t="n">
-        <v>9.548707999999999e-07</v>
+        <v>0.0001189588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.113121032714844</v>
+        <v>2.10312032699585</v>
       </c>
       <c r="B28" t="n">
-        <v>9.521579e-07</v>
+        <v>0.0001189768</v>
       </c>
     </row>
     <row r="29">
@@ -657,87 +657,87 @@
         <v>2.20612645149231</v>
       </c>
       <c r="B29" t="n">
-        <v>9.530702e-07</v>
+        <v>0.000119006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.301131725311279</v>
+        <v>2.309132099151611</v>
       </c>
       <c r="B30" t="n">
-        <v>9.493594e-07</v>
+        <v>0.0001190462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.407137870788574</v>
+        <v>2.408137798309326</v>
       </c>
       <c r="B31" t="n">
-        <v>9.504763e-07</v>
+        <v>0.0001190432</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.509143590927124</v>
+        <v>2.516143798828125</v>
       </c>
       <c r="B32" t="n">
-        <v>9.52301e-07</v>
+        <v>0.0001188656</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.607149124145508</v>
+        <v>2.623150110244751</v>
       </c>
       <c r="B33" t="n">
-        <v>9.528008000000001e-07</v>
+        <v>0.0001189008</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.71115517616272</v>
+        <v>2.728156089782715</v>
       </c>
       <c r="B34" t="n">
-        <v>9.552232000000001e-07</v>
+        <v>0.0001189955</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.810160636901855</v>
+        <v>2.82016134262085</v>
       </c>
       <c r="B35" t="n">
-        <v>9.549892e-07</v>
+        <v>0.0001187908</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.917166948318481</v>
+        <v>2.900165796279907</v>
       </c>
       <c r="B36" t="n">
-        <v>9.534626e-07</v>
+        <v>0.0001189284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.006171941757202</v>
+        <v>3.003171920776367</v>
       </c>
       <c r="B37" t="n">
-        <v>9.514752000000001e-07</v>
+        <v>0.0001188874</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.112178087234497</v>
+        <v>3.104177713394165</v>
       </c>
       <c r="B38" t="n">
-        <v>9.490597e-07</v>
+        <v>0.0001188314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.219184160232544</v>
+        <v>3.208183526992798</v>
       </c>
       <c r="B39" t="n">
-        <v>9.501486e-07</v>
+        <v>0.0001188295</v>
       </c>
     </row>
     <row r="40">
@@ -745,191 +745,191 @@
         <v>3.306189060211182</v>
       </c>
       <c r="B40" t="n">
-        <v>9.513864e-07</v>
+        <v>0.0001188339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.411195039749146</v>
+        <v>3.406194925308228</v>
       </c>
       <c r="B41" t="n">
-        <v>9.49907e-07</v>
+        <v>0.0001189833</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.518201351165771</v>
+        <v>3.513201236724854</v>
       </c>
       <c r="B42" t="n">
-        <v>9.514841e-07</v>
+        <v>0.0001189485</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.61320686340332</v>
+        <v>3.605206251144409</v>
       </c>
       <c r="B43" t="n">
-        <v>9.529156e-07</v>
+        <v>0.0001189104</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.702211856842041</v>
+        <v>3.709212064743042</v>
       </c>
       <c r="B44" t="n">
-        <v>9.512018e-07</v>
+        <v>0.0001188021</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.807217836380005</v>
+        <v>3.815218210220337</v>
       </c>
       <c r="B45" t="n">
-        <v>9.516893e-07</v>
+        <v>0.0001187642</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.910223722457886</v>
+        <v>3.906223297119141</v>
       </c>
       <c r="B46" t="n">
-        <v>9.510005e-07</v>
+        <v>0.0001188654</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.001229047775269</v>
+        <v>4.002228975296021</v>
       </c>
       <c r="B47" t="n">
-        <v>9.494629e-07</v>
+        <v>0.0001188251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.110235214233398</v>
+        <v>4.111235380172729</v>
       </c>
       <c r="B48" t="n">
-        <v>9.487636e-07</v>
+        <v>0.0001187601</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.215241193771362</v>
+        <v>4.203240394592285</v>
       </c>
       <c r="B49" t="n">
-        <v>9.491878e-07</v>
+        <v>0.0001186676</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.303246021270752</v>
+        <v>4.301245927810669</v>
       </c>
       <c r="B50" t="n">
-        <v>9.490784e-07</v>
+        <v>0.0001187144</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.408252239227295</v>
+        <v>4.412252426147461</v>
       </c>
       <c r="B51" t="n">
-        <v>9.514803e-07</v>
+        <v>0.0001186423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.513258218765259</v>
+        <v>4.505257844924927</v>
       </c>
       <c r="B52" t="n">
-        <v>9.499104e-07</v>
+        <v>0.0001186993</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.602263212203979</v>
+        <v>4.60926365852356</v>
       </c>
       <c r="B53" t="n">
-        <v>9.496237e-07</v>
+        <v>0.0001185491</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.707269430160522</v>
+        <v>4.710269451141357</v>
       </c>
       <c r="B54" t="n">
-        <v>9.502307e-07</v>
+        <v>0.0001185794</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.811275243759155</v>
+        <v>4.807275056838989</v>
       </c>
       <c r="B55" t="n">
-        <v>9.491077e-07</v>
+        <v>0.0001185895</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.906280755996704</v>
+        <v>4.915281057357788</v>
       </c>
       <c r="B56" t="n">
-        <v>9.513985e-07</v>
+        <v>0.0001186803</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.007286548614502</v>
+        <v>5.019287109375</v>
       </c>
       <c r="B57" t="n">
-        <v>9.512454e-07</v>
+        <v>0.0001186637</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.102292060852051</v>
+        <v>5.124293088912964</v>
       </c>
       <c r="B58" t="n">
-        <v>9.514811e-07</v>
+        <v>0.0001185472</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.20329761505127</v>
+        <v>5.252300500869751</v>
       </c>
       <c r="B59" t="n">
-        <v>9.519007e-07</v>
+        <v>0.0001185209</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.302303314208984</v>
+        <v>5.339305400848389</v>
       </c>
       <c r="B60" t="n">
-        <v>9.507046e-07</v>
+        <v>0.0001185634</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.4083092212677</v>
+        <v>5.436311006546021</v>
       </c>
       <c r="B61" t="n">
-        <v>9.521107e-07</v>
+        <v>0.0001186394</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.501314878463745</v>
+        <v>5.505314826965332</v>
       </c>
       <c r="B62" t="n">
-        <v>9.515583e-07</v>
+        <v>0.0001186588</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.609320878982544</v>
+        <v>5.608320713043213</v>
       </c>
       <c r="B63" t="n">
-        <v>9.543112000000001e-07</v>
+        <v>0.0001186101</v>
       </c>
     </row>
     <row r="64">
@@ -937,103 +937,103 @@
         <v>5.709326505661011</v>
       </c>
       <c r="B64" t="n">
-        <v>9.493651e-07</v>
+        <v>0.0001184844</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.808332204818726</v>
+        <v>5.816332817077637</v>
       </c>
       <c r="B65" t="n">
-        <v>9.521212e-07</v>
+        <v>0.0001184912</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.917338371276855</v>
+        <v>5.923338890075684</v>
       </c>
       <c r="B66" t="n">
-        <v>9.500404e-07</v>
+        <v>0.000118368</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.013344049453735</v>
+        <v>6.022344350814819</v>
       </c>
       <c r="B67" t="n">
-        <v>9.495315e-07</v>
+        <v>0.0001183147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.104349136352539</v>
+        <v>6.124350309371948</v>
       </c>
       <c r="B68" t="n">
-        <v>9.469994e-07</v>
+        <v>0.0001183763</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.208355188369751</v>
+        <v>6.204354763031006</v>
       </c>
       <c r="B69" t="n">
-        <v>9.457081e-07</v>
+        <v>0.000118316</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.313361167907715</v>
+        <v>6.306360960006714</v>
       </c>
       <c r="B70" t="n">
-        <v>9.455013e-07</v>
+        <v>0.0001182957</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.403366088867188</v>
+        <v>6.403366327285767</v>
       </c>
       <c r="B71" t="n">
-        <v>9.454918e-07</v>
+        <v>0.0001183233</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.505372285842896</v>
+        <v>6.507372379302979</v>
       </c>
       <c r="B72" t="n">
-        <v>9.459993e-07</v>
+        <v>0.0001182895</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.610378265380859</v>
+        <v>6.60437798500061</v>
       </c>
       <c r="B73" t="n">
-        <v>9.451025e-07</v>
+        <v>0.0001182665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.700383186340332</v>
+        <v>6.703383684158325</v>
       </c>
       <c r="B74" t="n">
-        <v>9.466121e-07</v>
+        <v>0.0001182733</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.809389591217041</v>
+        <v>6.806389331817627</v>
       </c>
       <c r="B75" t="n">
-        <v>9.47852e-07</v>
+        <v>0.0001183896</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.913395404815674</v>
+        <v>6.905395030975342</v>
       </c>
       <c r="B76" t="n">
-        <v>9.472473e-07</v>
+        <v>0.0001183544</v>
       </c>
     </row>
     <row r="77">
@@ -1041,71 +1041,71 @@
         <v>7.003400802612305</v>
       </c>
       <c r="B77" t="n">
-        <v>9.469946e-07</v>
+        <v>0.0001183186</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.100406169891357</v>
+        <v>7.103406429290771</v>
       </c>
       <c r="B78" t="n">
-        <v>9.453182e-07</v>
+        <v>0.0001182311</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.210412502288818</v>
+        <v>7.207412242889404</v>
       </c>
       <c r="B79" t="n">
-        <v>9.46128e-07</v>
+        <v>0.0001182985</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.301417827606201</v>
+        <v>7.30741810798645</v>
       </c>
       <c r="B80" t="n">
-        <v>9.450364e-07</v>
+        <v>0.0001184556</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.418424367904663</v>
+        <v>7.410423755645752</v>
       </c>
       <c r="B81" t="n">
-        <v>9.468302000000001e-07</v>
+        <v>0.0001183098</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.523430347442627</v>
+        <v>7.500429153442383</v>
       </c>
       <c r="B82" t="n">
-        <v>9.458423e-07</v>
+        <v>0.0001184937</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.631436586380005</v>
+        <v>7.608435153961182</v>
       </c>
       <c r="B83" t="n">
-        <v>9.465607e-07</v>
+        <v>0.0001184474</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.702440500259399</v>
+        <v>7.702440738677979</v>
       </c>
       <c r="B84" t="n">
-        <v>9.458905e-07</v>
+        <v>0.0001184245</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.811446905136108</v>
+        <v>7.807446479797363</v>
       </c>
       <c r="B85" t="n">
-        <v>9.462906e-07</v>
+        <v>0.000118566</v>
       </c>
     </row>
     <row r="86">
@@ -1113,175 +1113,175 @@
         <v>7.906452178955078</v>
       </c>
       <c r="B86" t="n">
-        <v>9.466594e-07</v>
+        <v>0.0001184558</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.019458770751953</v>
+        <v>8.008458375930786</v>
       </c>
       <c r="B87" t="n">
-        <v>9.462477e-07</v>
+        <v>0.0001184163</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.109463930130005</v>
+        <v>8.118464469909668</v>
       </c>
       <c r="B88" t="n">
-        <v>9.446271e-07</v>
+        <v>0.000118265</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.20146918296814</v>
+        <v>8.220470190048218</v>
       </c>
       <c r="B89" t="n">
-        <v>9.44408e-07</v>
+        <v>0.000118377</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.301474809646606</v>
+        <v>8.300474882125854</v>
       </c>
       <c r="B90" t="n">
-        <v>9.444117e-07</v>
+        <v>0.0001185123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.410481214523315</v>
+        <v>8.403480768203735</v>
       </c>
       <c r="B91" t="n">
-        <v>9.42571e-07</v>
+        <v>0.0001187516</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.504486322402954</v>
+        <v>8.503486394882202</v>
       </c>
       <c r="B92" t="n">
-        <v>9.432357e-07</v>
+        <v>0.0001186959</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.605492353439331</v>
+        <v>8.607492446899414</v>
       </c>
       <c r="B93" t="n">
-        <v>9.447829e-07</v>
+        <v>0.0001185959</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.710498332977295</v>
+        <v>8.711498260498047</v>
       </c>
       <c r="B94" t="n">
-        <v>9.432048e-07</v>
+        <v>0.0001187581</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.801503419876099</v>
+        <v>8.820504665374756</v>
       </c>
       <c r="B95" t="n">
-        <v>9.439507e-07</v>
+        <v>0.0001186562</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.905509471893311</v>
+        <v>8.900509119033813</v>
       </c>
       <c r="B96" t="n">
-        <v>9.405617e-07</v>
+        <v>0.0001185664</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.013515472412109</v>
+        <v>9.003515243530273</v>
       </c>
       <c r="B97" t="n">
-        <v>9.425286e-07</v>
+        <v>0.0001185746</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.102520704269409</v>
+        <v>9.101520776748657</v>
       </c>
       <c r="B98" t="n">
-        <v>9.411025e-07</v>
+        <v>0.0001186444</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.20552659034729</v>
+        <v>9.207526683807373</v>
       </c>
       <c r="B99" t="n">
-        <v>9.422901e-07</v>
+        <v>0.0001186369</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.306532382965088</v>
+        <v>9.303532361984253</v>
       </c>
       <c r="B100" t="n">
-        <v>9.441735e-07</v>
+        <v>0.0001186885</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.417538642883301</v>
+        <v>9.402537822723389</v>
       </c>
       <c r="B101" t="n">
-        <v>9.430435e-07</v>
+        <v>0.000118681</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.518544435501099</v>
+        <v>9.501543521881104</v>
       </c>
       <c r="B102" t="n">
-        <v>9.423275e-07</v>
+        <v>0.0001186773</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.60854959487915</v>
+        <v>9.602549314498901</v>
       </c>
       <c r="B103" t="n">
-        <v>9.416077e-07</v>
+        <v>0.0001186626</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.708555221557617</v>
+        <v>9.700555086135864</v>
       </c>
       <c r="B104" t="n">
-        <v>9.408259e-07</v>
+        <v>0.0001186357</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.817561626434326</v>
+        <v>9.807560920715332</v>
       </c>
       <c r="B105" t="n">
-        <v>9.423701e-07</v>
+        <v>0.0001186832</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.914567232131958</v>
+        <v>9.902566432952881</v>
       </c>
       <c r="B106" t="n">
-        <v>9.412195e-07</v>
+        <v>0.000118781</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.00357222557068</v>
+        <v>10.00257205963135</v>
       </c>
       <c r="B107" t="n">
-        <v>9.422421e-07</v>
+        <v>0.0001187369</v>
       </c>
     </row>
     <row r="108">
@@ -1289,367 +1289,367 @@
         <v>10.10057783126831</v>
       </c>
       <c r="B108" t="n">
-        <v>9.390595e-07</v>
+        <v>0.0001188322</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.20958399772644</v>
+        <v>10.20158362388611</v>
       </c>
       <c r="B109" t="n">
-        <v>9.393268e-07</v>
+        <v>0.0001188631</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.30058932304382</v>
+        <v>10.31059002876282</v>
       </c>
       <c r="B110" t="n">
-        <v>9.420258e-07</v>
+        <v>0.0001187609</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.41059541702271</v>
+        <v>10.40759539604187</v>
       </c>
       <c r="B111" t="n">
-        <v>9.38476e-07</v>
+        <v>0.0001187741</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.51560163497925</v>
+        <v>10.50760126113892</v>
       </c>
       <c r="B112" t="n">
-        <v>9.432584e-07</v>
+        <v>0.0001188297</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.60560655593872</v>
+        <v>10.61660718917847</v>
       </c>
       <c r="B113" t="n">
-        <v>9.390521e-07</v>
+        <v>0.0001188611</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.70861268043518</v>
+        <v>10.72561359405518</v>
       </c>
       <c r="B114" t="n">
-        <v>9.383017e-07</v>
+        <v>0.0001187628</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.81561851501465</v>
+        <v>10.82861948013306</v>
       </c>
       <c r="B115" t="n">
-        <v>9.40883e-07</v>
+        <v>0.0001186658</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.90362358093262</v>
+        <v>10.91462421417236</v>
       </c>
       <c r="B116" t="n">
-        <v>9.397021e-07</v>
+        <v>0.0001188087</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.01763010025024</v>
+        <v>11.03363132476807</v>
       </c>
       <c r="B117" t="n">
-        <v>9.401977e-07</v>
+        <v>0.0001186659</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.12363624572754</v>
+        <v>11.13963723182678</v>
       </c>
       <c r="B118" t="n">
-        <v>9.391601e-07</v>
+        <v>0.0001186811</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.20664119720459</v>
+        <v>11.24764347076416</v>
       </c>
       <c r="B119" t="n">
-        <v>9.376114e-07</v>
+        <v>0.0001186384</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.30264663696289</v>
+        <v>11.33864855766296</v>
       </c>
       <c r="B120" t="n">
-        <v>9.388212000000001e-07</v>
+        <v>0.0001186902</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.40765261650085</v>
+        <v>11.4256534576416</v>
       </c>
       <c r="B121" t="n">
-        <v>9.363121e-07</v>
+        <v>0.0001186647</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.50365805625916</v>
+        <v>11.53065967559814</v>
       </c>
       <c r="B122" t="n">
-        <v>9.370689e-07</v>
+        <v>0.0001186317</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.60166382789612</v>
+        <v>11.63666558265686</v>
       </c>
       <c r="B123" t="n">
-        <v>9.364907e-07</v>
+        <v>0.000118669</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.70766973495483</v>
+        <v>11.73067116737366</v>
       </c>
       <c r="B124" t="n">
-        <v>9.375529e-07</v>
+        <v>0.0001187186</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.80367517471313</v>
+        <v>11.80867528915405</v>
       </c>
       <c r="B125" t="n">
-        <v>9.352531e-07</v>
+        <v>0.000118812</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.90968108177185</v>
+        <v>11.91068124771118</v>
       </c>
       <c r="B126" t="n">
-        <v>9.359859e-07</v>
+        <v>0.0001187841</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.00768685340881</v>
+        <v>12.0096869468689</v>
       </c>
       <c r="B127" t="n">
-        <v>9.36559e-07</v>
+        <v>0.0001187298</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.10469245910645</v>
+        <v>12.11769318580627</v>
       </c>
       <c r="B128" t="n">
-        <v>9.394214e-07</v>
+        <v>0.0001187498</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.20369815826416</v>
+        <v>12.22069907188416</v>
       </c>
       <c r="B129" t="n">
-        <v>9.36777e-07</v>
+        <v>0.0001186885</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>12.30370378494263</v>
+        <v>12.32870531082153</v>
       </c>
       <c r="B130" t="n">
-        <v>9.363945e-07</v>
+        <v>0.0001186982</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.40470957756042</v>
+        <v>12.42071032524109</v>
       </c>
       <c r="B131" t="n">
-        <v>9.369632999999999e-07</v>
+        <v>0.0001187212</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12.50271511077881</v>
+        <v>12.50771546363831</v>
       </c>
       <c r="B132" t="n">
-        <v>9.363278e-07</v>
+        <v>0.0001186993</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.60072064399719</v>
+        <v>12.60272097587585</v>
       </c>
       <c r="B133" t="n">
-        <v>9.354431e-07</v>
+        <v>0.0001187082</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>12.70172643661499</v>
+        <v>12.70372653007507</v>
       </c>
       <c r="B134" t="n">
-        <v>9.355279e-07</v>
+        <v>0.0001188538</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>12.80173230171204</v>
+        <v>12.80873274803162</v>
       </c>
       <c r="B135" t="n">
-        <v>9.359634e-07</v>
+        <v>0.0001187412</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>12.90773844718933</v>
+        <v>12.90873837471008</v>
       </c>
       <c r="B136" t="n">
-        <v>9.343086e-07</v>
+        <v>0.0001187323</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.00174379348755</v>
+        <v>13.01774454116821</v>
       </c>
       <c r="B137" t="n">
-        <v>9.35395e-07</v>
+        <v>0.0001186768</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.10174942016602</v>
+        <v>13.11074995994568</v>
       </c>
       <c r="B138" t="n">
-        <v>9.349926e-07</v>
+        <v>0.000118747</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>13.20575547218323</v>
+        <v>13.20075511932373</v>
       </c>
       <c r="B139" t="n">
-        <v>9.33636e-07</v>
+        <v>0.000118587</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>13.3187620639801</v>
+        <v>13.31676173210144</v>
       </c>
       <c r="B140" t="n">
-        <v>9.338327e-07</v>
+        <v>0.0001187276</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.4217677116394</v>
+        <v>13.41776752471924</v>
       </c>
       <c r="B141" t="n">
-        <v>9.406637e-07</v>
+        <v>0.0001187986</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13.50577259063721</v>
+        <v>13.52477359771729</v>
       </c>
       <c r="B142" t="n">
-        <v>9.232048e-07</v>
+        <v>0.0001187495</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13.61477899551392</v>
+        <v>13.63978028297424</v>
       </c>
       <c r="B143" t="n">
-        <v>9.353407e-07</v>
+        <v>0.0001187008</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13.72078490257263</v>
+        <v>13.74078583717346</v>
       </c>
       <c r="B144" t="n">
-        <v>9.284428e-07</v>
+        <v>0.0001187154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.80078959465027</v>
+        <v>13.80978989601135</v>
       </c>
       <c r="B145" t="n">
-        <v>9.357741e-07</v>
+        <v>0.0001188635</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.90379524230957</v>
+        <v>13.9167959690094</v>
       </c>
       <c r="B146" t="n">
-        <v>9.35257e-07</v>
+        <v>0.0001189227</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.00480103492737</v>
+        <v>14.02180194854736</v>
       </c>
       <c r="B147" t="n">
-        <v>9.345828e-07</v>
+        <v>0.0001187289</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14.11080694198608</v>
+        <v>14.101806640625</v>
       </c>
       <c r="B148" t="n">
-        <v>9.355272e-07</v>
+        <v>0.0001186555</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.20781254768372</v>
+        <v>14.20081233978271</v>
       </c>
       <c r="B149" t="n">
-        <v>9.36138e-07</v>
+        <v>0.0001186697</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14.31981897354126</v>
+        <v>14.30881834030151</v>
       </c>
       <c r="B150" t="n">
-        <v>9.358223e-07</v>
+        <v>0.0001186383</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.40182375907898</v>
+        <v>14.40782403945923</v>
       </c>
       <c r="B151" t="n">
-        <v>9.359865e-07</v>
+        <v>0.0001186843</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.50582957267761</v>
+        <v>14.51883029937744</v>
       </c>
       <c r="B152" t="n">
-        <v>9.363663e-07</v>
+        <v>0.0001187369</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14.60783576965332</v>
+        <v>14.60683536529541</v>
       </c>
       <c r="B153" t="n">
-        <v>9.361096e-07</v>
+        <v>0.0001187063</v>
       </c>
     </row>
     <row r="154">
@@ -1657,87 +1657,87 @@
         <v>14.71284151077271</v>
       </c>
       <c r="B154" t="n">
-        <v>9.366321e-07</v>
+        <v>0.0001186171</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14.80384659767151</v>
+        <v>14.81984758377075</v>
       </c>
       <c r="B155" t="n">
-        <v>9.368507e-07</v>
+        <v>0.0001188177</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.90685272216797</v>
+        <v>14.9078528881073</v>
       </c>
       <c r="B156" t="n">
-        <v>9.357918999999999e-07</v>
+        <v>0.0001188039</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15.01185870170593</v>
+        <v>15.00585842132568</v>
       </c>
       <c r="B157" t="n">
-        <v>9.363563e-07</v>
+        <v>0.0001187328</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.10286378860474</v>
+        <v>15.10586404800415</v>
       </c>
       <c r="B158" t="n">
-        <v>9.352507e-07</v>
+        <v>0.0001187785</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>15.20186948776245</v>
+        <v>15.21187019348145</v>
       </c>
       <c r="B159" t="n">
-        <v>9.352528e-07</v>
+        <v>0.0001188641</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15.31187582015991</v>
+        <v>15.30287551879883</v>
       </c>
       <c r="B160" t="n">
-        <v>9.331437e-07</v>
+        <v>0.0001187895</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15.40788149833679</v>
+        <v>15.40688133239746</v>
       </c>
       <c r="B161" t="n">
-        <v>9.34178e-07</v>
+        <v>0.0001188562</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15.52088785171509</v>
+        <v>15.51088714599609</v>
       </c>
       <c r="B162" t="n">
-        <v>9.334771e-07</v>
+        <v>0.0001187666</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.60889291763306</v>
+        <v>15.60089254379272</v>
       </c>
       <c r="B163" t="n">
-        <v>9.331465e-07</v>
+        <v>0.0001188555</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15.70689845085144</v>
+        <v>15.70389819145203</v>
       </c>
       <c r="B164" t="n">
-        <v>9.325174e-07</v>
+        <v>0.0001187673</v>
       </c>
     </row>
     <row r="165">
@@ -1745,151 +1745,151 @@
         <v>15.80990433692932</v>
       </c>
       <c r="B165" t="n">
-        <v>9.324138e-07</v>
+        <v>0.0001187614</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.91491055488586</v>
+        <v>15.90990996360779</v>
       </c>
       <c r="B166" t="n">
-        <v>9.324226e-07</v>
+        <v>0.000118597</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16.00591564178467</v>
+        <v>16.0189163684845</v>
       </c>
       <c r="B167" t="n">
-        <v>9.307194e-07</v>
+        <v>0.0001187448</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16.10792136192322</v>
+        <v>16.10192108154297</v>
       </c>
       <c r="B168" t="n">
-        <v>9.315982e-07</v>
+        <v>0.0001187463</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.21392750740051</v>
+        <v>16.2059268951416</v>
       </c>
       <c r="B169" t="n">
-        <v>9.304836e-07</v>
+        <v>0.0001187136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.30593252182007</v>
+        <v>16.30593276023865</v>
       </c>
       <c r="B170" t="n">
-        <v>9.316383e-07</v>
+        <v>0.0001185965</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.40993881225586</v>
+        <v>16.41293883323669</v>
       </c>
       <c r="B171" t="n">
-        <v>9.314102e-07</v>
+        <v>0.0001186558</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16.51494479179382</v>
+        <v>16.5039439201355</v>
       </c>
       <c r="B172" t="n">
-        <v>9.323327e-07</v>
+        <v>0.000118569</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16.60694980621338</v>
+        <v>16.60594987869263</v>
       </c>
       <c r="B173" t="n">
-        <v>9.304729e-07</v>
+        <v>0.0001185926</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16.72095632553101</v>
+        <v>16.71095585823059</v>
       </c>
       <c r="B174" t="n">
-        <v>9.307334e-07</v>
+        <v>0.0001186242</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16.80296111106873</v>
+        <v>16.80096101760864</v>
       </c>
       <c r="B175" t="n">
-        <v>9.29643e-07</v>
+        <v>0.0001186402</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16.90896725654602</v>
+        <v>16.90796732902527</v>
       </c>
       <c r="B176" t="n">
-        <v>9.30576e-07</v>
+        <v>0.0001187605</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.01997375488281</v>
+        <v>17.00897288322449</v>
       </c>
       <c r="B177" t="n">
-        <v>9.293701e-07</v>
+        <v>0.0001187123</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.11497902870178</v>
+        <v>17.10597848892212</v>
       </c>
       <c r="B178" t="n">
-        <v>9.30369e-07</v>
+        <v>0.0001187576</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.20598435401917</v>
+        <v>17.20698428153992</v>
       </c>
       <c r="B179" t="n">
-        <v>9.308829e-07</v>
+        <v>0.0001188799</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.30298972129822</v>
+        <v>17.3099901676178</v>
       </c>
       <c r="B180" t="n">
-        <v>9.289452e-07</v>
+        <v>0.0001188556</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.40699577331543</v>
+        <v>17.40999579429626</v>
       </c>
       <c r="B181" t="n">
-        <v>9.286549e-07</v>
+        <v>0.0001187253</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.51500177383423</v>
+        <v>17.52000212669373</v>
       </c>
       <c r="B182" t="n">
-        <v>9.261762e-07</v>
+        <v>0.0001186687</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.62200808525085</v>
+        <v>17.60000658035278</v>
       </c>
       <c r="B183" t="n">
-        <v>9.252011e-07</v>
+        <v>0.0001187144</v>
       </c>
     </row>
     <row r="184">
@@ -1897,183 +1897,183 @@
         <v>17.70401263237</v>
       </c>
       <c r="B184" t="n">
-        <v>9.256808e-07</v>
+        <v>0.0001188165</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.82001924514771</v>
+        <v>17.80401849746704</v>
       </c>
       <c r="B185" t="n">
-        <v>9.239348e-07</v>
+        <v>0.0001187157</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.9380259513855</v>
+        <v>17.909024477005</v>
       </c>
       <c r="B186" t="n">
-        <v>9.248396e-07</v>
+        <v>0.000118808</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18.04403233528137</v>
+        <v>18.00002980232239</v>
       </c>
       <c r="B187" t="n">
-        <v>9.255039e-07</v>
+        <v>0.0001186758</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.11803650856018</v>
+        <v>18.10903573036194</v>
       </c>
       <c r="B188" t="n">
-        <v>9.247066e-07</v>
+        <v>0.0001187524</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>18.22404217720032</v>
+        <v>18.2120418548584</v>
       </c>
       <c r="B189" t="n">
-        <v>9.279349e-07</v>
+        <v>0.0001187794</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>18.30504703521729</v>
+        <v>18.30204677581787</v>
       </c>
       <c r="B190" t="n">
-        <v>9.277681e-07</v>
+        <v>0.0001188232</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.42405366897583</v>
+        <v>18.40505266189575</v>
       </c>
       <c r="B191" t="n">
-        <v>9.276033e-07</v>
+        <v>0.0001186727</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>18.53406000137329</v>
+        <v>18.51105904579163</v>
       </c>
       <c r="B192" t="n">
-        <v>9.276575e-07</v>
+        <v>0.0001185809</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18.64106631278992</v>
+        <v>18.60206413269043</v>
       </c>
       <c r="B193" t="n">
-        <v>9.283161e-07</v>
+        <v>0.0001185778</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.71307039260864</v>
+        <v>18.70706987380981</v>
       </c>
       <c r="B194" t="n">
-        <v>9.284425e-07</v>
+        <v>0.0001186486</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.8230767250061</v>
+        <v>18.81107616424561</v>
       </c>
       <c r="B195" t="n">
-        <v>9.279603e-07</v>
+        <v>0.000118583</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.90608143806458</v>
+        <v>18.90208125114441</v>
       </c>
       <c r="B196" t="n">
-        <v>9.260573e-07</v>
+        <v>0.000118605</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>19.0200879573822</v>
+        <v>19.00508689880371</v>
       </c>
       <c r="B197" t="n">
-        <v>9.258084e-07</v>
+        <v>0.0001187233</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19.1260941028595</v>
+        <v>19.11109328269958</v>
       </c>
       <c r="B198" t="n">
-        <v>9.265762999999999e-07</v>
+        <v>0.0001186093</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.20809864997864</v>
+        <v>19.20209836959839</v>
       </c>
       <c r="B199" t="n">
-        <v>9.268653e-07</v>
+        <v>0.0001187377</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.30810451507568</v>
+        <v>19.30510425567627</v>
       </c>
       <c r="B200" t="n">
-        <v>9.257923e-07</v>
+        <v>0.0001187893</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.41811084747314</v>
+        <v>19.41111040115356</v>
       </c>
       <c r="B201" t="n">
-        <v>9.264352e-07</v>
+        <v>0.0001186997</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.53111696243286</v>
+        <v>19.50111532211304</v>
       </c>
       <c r="B202" t="n">
-        <v>9.264107e-07</v>
+        <v>0.0001186565</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.63312315940857</v>
+        <v>19.60512161254883</v>
       </c>
       <c r="B203" t="n">
-        <v>9.251673e-07</v>
+        <v>0.0001187874</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.70412707328796</v>
+        <v>19.71112751960754</v>
       </c>
       <c r="B204" t="n">
-        <v>9.249729e-07</v>
+        <v>0.0001187662</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19.81313323974609</v>
+        <v>19.8011326789856</v>
       </c>
       <c r="B205" t="n">
-        <v>9.264098e-07</v>
+        <v>0.0001186451</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.90513849258423</v>
+        <v>19.90013837814331</v>
       </c>
       <c r="B206" t="n">
-        <v>9.259418e-07</v>
+        <v>0.0001186336</v>
       </c>
     </row>
     <row r="207">
@@ -2081,183 +2081,183 @@
         <v>20.00914454460144</v>
       </c>
       <c r="B207" t="n">
-        <v>9.259549e-07</v>
+        <v>0.0001186577</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>20.11515069007874</v>
+        <v>20.10314989089966</v>
       </c>
       <c r="B208" t="n">
-        <v>9.260965e-07</v>
+        <v>0.0001186695</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>20.20215559005737</v>
+        <v>20.20415568351746</v>
       </c>
       <c r="B209" t="n">
-        <v>9.255036e-07</v>
+        <v>0.0001186864</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20.30716156959534</v>
+        <v>20.30816149711609</v>
       </c>
       <c r="B210" t="n">
-        <v>9.252118e-07</v>
+        <v>0.0001187194</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.41216778755188</v>
+        <v>20.40116691589355</v>
       </c>
       <c r="B211" t="n">
-        <v>9.243961e-07</v>
+        <v>0.0001186316</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>20.50417280197144</v>
+        <v>20.50217270851135</v>
       </c>
       <c r="B212" t="n">
-        <v>9.175493999999999e-07</v>
+        <v>0.0001185992</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>20.60117840766907</v>
+        <v>20.60717868804932</v>
       </c>
       <c r="B213" t="n">
-        <v>9.24387e-07</v>
+        <v>0.0001186246</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>20.71818494796753</v>
+        <v>20.70618438720703</v>
       </c>
       <c r="B214" t="n">
-        <v>9.235231e-07</v>
+        <v>0.0001186868</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.82919144630432</v>
+        <v>20.80718994140625</v>
       </c>
       <c r="B215" t="n">
-        <v>9.231734e-07</v>
+        <v>0.0001185831</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20.92619705200195</v>
+        <v>20.91219615936279</v>
       </c>
       <c r="B216" t="n">
-        <v>9.225382e-07</v>
+        <v>0.0001185697</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>21.00920176506042</v>
+        <v>21.0032012462616</v>
       </c>
       <c r="B217" t="n">
-        <v>9.224756e-07</v>
+        <v>0.0001186947</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>21.12320828437805</v>
+        <v>21.10720753669739</v>
       </c>
       <c r="B218" t="n">
-        <v>9.216374e-07</v>
+        <v>0.0001187013</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.2302143573761</v>
+        <v>21.2132134437561</v>
       </c>
       <c r="B219" t="n">
-        <v>9.207017e-07</v>
+        <v>0.0001186981</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>21.34722089767456</v>
+        <v>21.30521869659424</v>
       </c>
       <c r="B220" t="n">
-        <v>9.201112e-07</v>
+        <v>0.0001186292</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21.42222547531128</v>
+        <v>21.40922474861145</v>
       </c>
       <c r="B221" t="n">
-        <v>9.209069e-07</v>
+        <v>0.0001187301</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21.52923130989075</v>
+        <v>21.51423048973083</v>
       </c>
       <c r="B222" t="n">
-        <v>9.197283e-07</v>
+        <v>0.0001187109</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>21.64123773574829</v>
+        <v>21.60523581504822</v>
       </c>
       <c r="B223" t="n">
-        <v>9.217091e-07</v>
+        <v>0.0001187894</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>21.71324181556702</v>
+        <v>21.70924186706543</v>
       </c>
       <c r="B224" t="n">
-        <v>9.204549e-07</v>
+        <v>0.0001187095</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21.82324838638306</v>
+        <v>21.81424760818481</v>
       </c>
       <c r="B225" t="n">
-        <v>9.2047e-07</v>
+        <v>0.0001188151</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>21.90325284004211</v>
+        <v>21.9052529335022</v>
       </c>
       <c r="B226" t="n">
-        <v>9.193675e-07</v>
+        <v>0.0001187307</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.00825881958008</v>
+        <v>22.00725889205933</v>
       </c>
       <c r="B227" t="n">
-        <v>9.202371e-07</v>
+        <v>0.0001187707</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.10626459121704</v>
+        <v>22.11326479911804</v>
       </c>
       <c r="B228" t="n">
-        <v>9.199011e-07</v>
+        <v>0.0001187559</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.21327042579651</v>
+        <v>22.20527005195618</v>
       </c>
       <c r="B229" t="n">
-        <v>9.203648e-07</v>
+        <v>0.0001187051</v>
       </c>
     </row>
     <row r="230">
@@ -2265,119 +2265,119 @@
         <v>22.30627584457397</v>
       </c>
       <c r="B230" t="n">
-        <v>9.196634e-07</v>
+        <v>0.0001187573</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.42228245735168</v>
+        <v>22.41228199005127</v>
       </c>
       <c r="B231" t="n">
-        <v>9.187551e-07</v>
+        <v>0.0001187077</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.5092875957489</v>
+        <v>22.50328707695007</v>
       </c>
       <c r="B232" t="n">
-        <v>9.193823e-07</v>
+        <v>0.000118673</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.61029314994812</v>
+        <v>22.60829305648804</v>
       </c>
       <c r="B233" t="n">
-        <v>9.189092e-07</v>
+        <v>0.0001186725</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.71729946136475</v>
+        <v>22.7112991809845</v>
       </c>
       <c r="B234" t="n">
-        <v>9.183026e-07</v>
+        <v>0.0001186077</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.81230497360229</v>
+        <v>22.80930471420288</v>
       </c>
       <c r="B235" t="n">
-        <v>9.180872e-07</v>
+        <v>0.0001186711</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.90631008148193</v>
+        <v>22.91731071472168</v>
       </c>
       <c r="B236" t="n">
-        <v>9.176225e-07</v>
+        <v>0.0001186142</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>23.01931667327881</v>
+        <v>23.01231622695923</v>
       </c>
       <c r="B237" t="n">
-        <v>9.181759e-07</v>
+        <v>0.0001186774</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23.13732361793518</v>
+        <v>23.1003212928772</v>
       </c>
       <c r="B238" t="n">
-        <v>9.173036e-07</v>
+        <v>0.0001186435</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.23832941055298</v>
+        <v>23.20732760429382</v>
       </c>
       <c r="B239" t="n">
-        <v>9.182172e-07</v>
+        <v>0.0001186213</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23.34833526611328</v>
+        <v>23.31133341789246</v>
       </c>
       <c r="B240" t="n">
-        <v>9.180443e-07</v>
+        <v>0.000118723</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>23.41933941841125</v>
+        <v>23.40033841133118</v>
       </c>
       <c r="B241" t="n">
-        <v>9.167507000000001e-07</v>
+        <v>0.0001186601</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>23.52734565734863</v>
+        <v>23.50334429740906</v>
       </c>
       <c r="B242" t="n">
-        <v>9.165961e-07</v>
+        <v>0.0001186589</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>23.62335133552551</v>
+        <v>23.60735034942627</v>
       </c>
       <c r="B243" t="n">
-        <v>9.180557e-07</v>
+        <v>0.0001186468</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>23.7043559551239</v>
+        <v>23.7113561630249</v>
       </c>
       <c r="B244" t="n">
-        <v>9.176905e-07</v>
+        <v>0.0001186079</v>
       </c>
     </row>
     <row r="245">
@@ -2385,111 +2385,111 @@
         <v>23.81736254692078</v>
       </c>
       <c r="B245" t="n">
-        <v>9.170256e-07</v>
+        <v>0.0001186285</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>23.92136836051941</v>
+        <v>23.9133677482605</v>
       </c>
       <c r="B246" t="n">
-        <v>9.186336e-07</v>
+        <v>0.0001185676</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>24.00137305259705</v>
+        <v>24.0023729801178</v>
       </c>
       <c r="B247" t="n">
-        <v>9.18442e-07</v>
+        <v>0.0001184889</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>24.10537886619568</v>
+        <v>24.10637879371643</v>
       </c>
       <c r="B248" t="n">
-        <v>9.165003e-07</v>
+        <v>0.0001186237</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>24.20538449287415</v>
+        <v>24.20938467979431</v>
       </c>
       <c r="B249" t="n">
-        <v>9.173164e-07</v>
+        <v>0.0001185995</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>24.31439089775085</v>
+        <v>24.3073902130127</v>
       </c>
       <c r="B250" t="n">
-        <v>9.167837999999999e-07</v>
+        <v>0.0001186174</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>24.40239572525024</v>
+        <v>24.41739678382874</v>
       </c>
       <c r="B251" t="n">
-        <v>9.168195e-07</v>
+        <v>0.0001186048</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>24.50440168380737</v>
+        <v>24.51440238952637</v>
       </c>
       <c r="B252" t="n">
-        <v>9.168735e-07</v>
+        <v>0.0001186188</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24.61040759086609</v>
+        <v>24.60240721702576</v>
       </c>
       <c r="B253" t="n">
-        <v>9.166678e-07</v>
+        <v>0.0001185713</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24.70041298866272</v>
+        <v>24.70241284370422</v>
       </c>
       <c r="B254" t="n">
-        <v>9.165148e-07</v>
+        <v>0.0001186202</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24.80941891670227</v>
+        <v>24.80841898918152</v>
       </c>
       <c r="B255" t="n">
-        <v>9.171471e-07</v>
+        <v>0.0001186494</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24.9114248752594</v>
+        <v>24.90242433547974</v>
       </c>
       <c r="B256" t="n">
-        <v>9.143536e-07</v>
+        <v>0.0001186676</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25.0004301071167</v>
+        <v>25.00143003463745</v>
       </c>
       <c r="B257" t="n">
-        <v>9.150837e-07</v>
+        <v>0.0001186189</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>25.10143566131592</v>
+        <v>25.10943627357483</v>
       </c>
       <c r="B258" t="n">
-        <v>9.155187e-07</v>
+        <v>0.0001185979</v>
       </c>
     </row>
     <row r="259">
@@ -2497,551 +2497,551 @@
         <v>25.20844197273254</v>
       </c>
       <c r="B259" t="n">
-        <v>9.149989e-07</v>
+        <v>0.0001185898</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25.31144785881042</v>
+        <v>25.31844806671143</v>
       </c>
       <c r="B260" t="n">
-        <v>9.138244e-07</v>
+        <v>0.0001185921</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25.42245435714722</v>
+        <v>25.41145348548889</v>
       </c>
       <c r="B261" t="n">
-        <v>9.146181999999999e-07</v>
+        <v>0.0001186154</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25.50645899772644</v>
+        <v>25.50045871734619</v>
       </c>
       <c r="B262" t="n">
-        <v>9.141538e-07</v>
+        <v>0.000118607</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25.61046481132507</v>
+        <v>25.60346436500549</v>
       </c>
       <c r="B263" t="n">
-        <v>9.148105e-07</v>
+        <v>0.0001186487</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25.71647095680237</v>
+        <v>25.70747041702271</v>
       </c>
       <c r="B264" t="n">
-        <v>9.133605e-07</v>
+        <v>0.0001186234</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25.82147693634033</v>
+        <v>25.81047630310059</v>
       </c>
       <c r="B265" t="n">
-        <v>9.134311e-07</v>
+        <v>0.0001185613</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25.92048263549805</v>
+        <v>25.91848254203796</v>
       </c>
       <c r="B266" t="n">
-        <v>9.140506e-07</v>
+        <v>0.000118586</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>26.01448798179626</v>
+        <v>26.01548790931702</v>
       </c>
       <c r="B267" t="n">
-        <v>9.129179e-07</v>
+        <v>0.0001185515</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>26.12749433517456</v>
+        <v>26.10449314117432</v>
       </c>
       <c r="B268" t="n">
-        <v>9.141895e-07</v>
+        <v>0.0001185675</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>26.22550010681152</v>
+        <v>26.20349884033203</v>
       </c>
       <c r="B269" t="n">
-        <v>9.140154e-07</v>
+        <v>0.000118589</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>26.33050608634949</v>
+        <v>26.30350470542908</v>
       </c>
       <c r="B270" t="n">
-        <v>9.119076e-07</v>
+        <v>0.0001186054</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>26.43751215934753</v>
+        <v>26.40351033210754</v>
       </c>
       <c r="B271" t="n">
-        <v>9.137037999999999e-07</v>
+        <v>0.000118568</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26.54551839828491</v>
+        <v>26.50251603126526</v>
       </c>
       <c r="B272" t="n">
-        <v>9.131735e-07</v>
+        <v>0.0001186074</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26.64852428436279</v>
+        <v>26.60452175140381</v>
       </c>
       <c r="B273" t="n">
-        <v>9.131192e-07</v>
+        <v>0.0001186343</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26.73752927780151</v>
+        <v>26.70752763748169</v>
       </c>
       <c r="B274" t="n">
-        <v>9.128688e-07</v>
+        <v>0.0001186513</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.83153486251831</v>
+        <v>26.8065333366394</v>
       </c>
       <c r="B275" t="n">
-        <v>9.117609e-07</v>
+        <v>0.0001186668</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26.90953898429871</v>
+        <v>26.90953946113586</v>
       </c>
       <c r="B276" t="n">
-        <v>9.127670999999999e-07</v>
+        <v>0.0001185768</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>27.00954508781433</v>
+        <v>27.00454449653625</v>
       </c>
       <c r="B277" t="n">
-        <v>9.129998e-07</v>
+        <v>0.0001185522</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>27.10255026817322</v>
+        <v>27.10655045509338</v>
       </c>
       <c r="B278" t="n">
-        <v>9.113189e-07</v>
+        <v>0.0001185687</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>27.20755624771118</v>
+        <v>27.20955634117126</v>
       </c>
       <c r="B279" t="n">
-        <v>9.133557e-07</v>
+        <v>0.0001185135</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>27.30956220626831</v>
+        <v>27.30856204032898</v>
       </c>
       <c r="B280" t="n">
-        <v>9.129302e-07</v>
+        <v>0.0001185424</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27.40856790542603</v>
+        <v>27.41756820678711</v>
       </c>
       <c r="B281" t="n">
-        <v>9.127551e-07</v>
+        <v>0.0001185385</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.503573179245</v>
+        <v>27.50857353210449</v>
       </c>
       <c r="B282" t="n">
-        <v>9.123017e-07</v>
+        <v>0.0001185483</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27.60657906532288</v>
+        <v>27.60057878494263</v>
       </c>
       <c r="B283" t="n">
-        <v>9.134304e-07</v>
+        <v>0.0001185121</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27.71758532524109</v>
+        <v>27.70958495140076</v>
       </c>
       <c r="B284" t="n">
-        <v>9.142536e-07</v>
+        <v>0.0001184887</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27.81859135627747</v>
+        <v>27.81159090995789</v>
       </c>
       <c r="B285" t="n">
-        <v>9.154482e-07</v>
+        <v>0.0001184654</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27.91359663009644</v>
+        <v>27.91059637069702</v>
       </c>
       <c r="B286" t="n">
-        <v>9.146513e-07</v>
+        <v>0.0001184489</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28.00160145759583</v>
+        <v>28.01760268211365</v>
       </c>
       <c r="B287" t="n">
-        <v>9.126351e-07</v>
+        <v>0.0001184871</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28.1076078414917</v>
+        <v>28.10860776901245</v>
       </c>
       <c r="B288" t="n">
-        <v>9.112566e-07</v>
+        <v>0.0001184618</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28.20961356163025</v>
+        <v>28.2086136341095</v>
       </c>
       <c r="B289" t="n">
-        <v>9.134783e-07</v>
+        <v>0.0001184407</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28.30861926078796</v>
+        <v>28.31761980056763</v>
       </c>
       <c r="B290" t="n">
-        <v>9.117427e-07</v>
+        <v>0.0001184505</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28.41662549972534</v>
+        <v>28.41462540626526</v>
       </c>
       <c r="B291" t="n">
-        <v>9.124717e-07</v>
+        <v>0.0001184307</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28.51363110542297</v>
+        <v>28.50363039970398</v>
       </c>
       <c r="B292" t="n">
-        <v>9.104006e-07</v>
+        <v>0.0001184883</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28.60163593292236</v>
+        <v>28.60663628578186</v>
       </c>
       <c r="B293" t="n">
-        <v>9.102014e-07</v>
+        <v>0.0001184605</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28.70164179801941</v>
+        <v>28.71164202690125</v>
       </c>
       <c r="B294" t="n">
-        <v>9.101997e-07</v>
+        <v>0.0001184066</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28.80764770507812</v>
+        <v>28.80064749717712</v>
       </c>
       <c r="B295" t="n">
-        <v>9.089284e-07</v>
+        <v>0.0001183935</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28.90765333175659</v>
+        <v>28.90265321731567</v>
       </c>
       <c r="B296" t="n">
-        <v>9.105866e-07</v>
+        <v>0.0001183662</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.01765966415405</v>
+        <v>29.00865912437439</v>
       </c>
       <c r="B297" t="n">
-        <v>9.109597e-07</v>
+        <v>0.0001183188</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29.11466550827026</v>
+        <v>29.10266470909119</v>
       </c>
       <c r="B298" t="n">
-        <v>9.089386e-07</v>
+        <v>0.0001182827</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>29.20267033576965</v>
+        <v>29.2016704082489</v>
       </c>
       <c r="B299" t="n">
-        <v>9.09251e-07</v>
+        <v>0.0001183481</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29.30667614936829</v>
+        <v>29.30367612838745</v>
       </c>
       <c r="B300" t="n">
-        <v>9.112064e-07</v>
+        <v>0.0001183099</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>29.40768194198608</v>
+        <v>29.40468192100525</v>
       </c>
       <c r="B301" t="n">
-        <v>9.092389e-07</v>
+        <v>0.0001183443</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>29.50168752670288</v>
+        <v>29.50368738174438</v>
       </c>
       <c r="B302" t="n">
-        <v>9.101063e-07</v>
+        <v>0.0001180991</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>29.6006932258606</v>
+        <v>29.60769367218018</v>
       </c>
       <c r="B303" t="n">
-        <v>9.0759e-07</v>
+        <v>0.000118207</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>29.70869922637939</v>
+        <v>29.70169878005981</v>
       </c>
       <c r="B304" t="n">
-        <v>9.077428e-07</v>
+        <v>0.0001182455</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>29.81070518493652</v>
+        <v>29.80170464515686</v>
       </c>
       <c r="B305" t="n">
-        <v>9.104698e-07</v>
+        <v>0.0001183876</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>29.92171144485474</v>
+        <v>29.90471076965332</v>
       </c>
       <c r="B306" t="n">
-        <v>9.089147e-07</v>
+        <v>0.0001184925</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>30.00571632385254</v>
+        <v>30.01771712303162</v>
       </c>
       <c r="B307" t="n">
-        <v>9.062051e-07</v>
+        <v>0.0001184689</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>30.11272239685059</v>
+        <v>30.12172293663025</v>
       </c>
       <c r="B308" t="n">
-        <v>9.0738e-07</v>
+        <v>0.000118395</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>30.21972870826721</v>
+        <v>30.20172739028931</v>
       </c>
       <c r="B309" t="n">
-        <v>9.071015e-07</v>
+        <v>0.0001183535</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>30.3077335357666</v>
+        <v>30.30573344230652</v>
       </c>
       <c r="B310" t="n">
-        <v>9.10195e-07</v>
+        <v>0.0001183674</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>30.41773986816406</v>
+        <v>30.40673923492432</v>
       </c>
       <c r="B311" t="n">
-        <v>9.109057e-07</v>
+        <v>0.000118317</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>30.52074575424194</v>
+        <v>30.51274514198303</v>
       </c>
       <c r="B312" t="n">
-        <v>9.112155e-07</v>
+        <v>0.0001182158</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>30.61075091362</v>
+        <v>30.60275053977966</v>
       </c>
       <c r="B313" t="n">
-        <v>9.111849e-07</v>
+        <v>0.0001182202</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>30.70475625991821</v>
+        <v>30.70775651931763</v>
       </c>
       <c r="B314" t="n">
-        <v>9.099173e-07</v>
+        <v>0.0001183369</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30.80376195907593</v>
+        <v>30.81276249885559</v>
       </c>
       <c r="B315" t="n">
-        <v>9.069652e-07</v>
+        <v>0.000118206</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>30.90676784515381</v>
+        <v>30.90376758575439</v>
       </c>
       <c r="B316" t="n">
-        <v>9.080203e-07</v>
+        <v>0.0001181916</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>31.00777339935303</v>
+        <v>31.00077319145203</v>
       </c>
       <c r="B317" t="n">
-        <v>9.080396e-07</v>
+        <v>0.0001180821</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>31.10177898406982</v>
+        <v>31.10977935791016</v>
       </c>
       <c r="B318" t="n">
-        <v>9.069319e-07</v>
+        <v>0.0001180491</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>31.20878505706787</v>
+        <v>31.20478487014771</v>
       </c>
       <c r="B319" t="n">
-        <v>9.07904e-07</v>
+        <v>0.0001180051</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>31.30779075622559</v>
+        <v>31.30479049682617</v>
       </c>
       <c r="B320" t="n">
-        <v>9.068855e-07</v>
+        <v>0.000117944</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>31.4187970161438</v>
+        <v>31.41479682922363</v>
       </c>
       <c r="B321" t="n">
-        <v>9.05765e-07</v>
+        <v>0.000117909</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.51180243492126</v>
+        <v>31.50580191612244</v>
       </c>
       <c r="B322" t="n">
-        <v>9.045828e-07</v>
+        <v>0.0001178444</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>31.60080766677856</v>
+        <v>31.60780811309814</v>
       </c>
       <c r="B323" t="n">
-        <v>9.056378e-07</v>
+        <v>0.0001178088</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31.70381331443787</v>
+        <v>31.71381402015686</v>
       </c>
       <c r="B324" t="n">
-        <v>9.046251e-07</v>
+        <v>0.0001178708</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>31.81081962585449</v>
+        <v>31.80481910705566</v>
       </c>
       <c r="B325" t="n">
-        <v>9.048103e-07</v>
+        <v>0.0001178361</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>31.90482473373413</v>
+        <v>31.9018247127533</v>
       </c>
       <c r="B326" t="n">
-        <v>9.038423e-07</v>
+        <v>0.0001178251</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>32.00383043289185</v>
+        <v>32.01083087921143</v>
       </c>
       <c r="B327" t="n">
-        <v>9.032413e-07</v>
+        <v>0.0001177646</v>
       </c>
     </row>
     <row r="328">
@@ -3049,183 +3049,183 @@
         <v>32.10483646392822</v>
       </c>
       <c r="B328" t="n">
-        <v>9.034963e-07</v>
+        <v>0.0001178349</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>32.21684265136719</v>
+        <v>32.20184183120728</v>
       </c>
       <c r="B329" t="n">
-        <v>9.033097e-07</v>
+        <v>0.0001177445</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>32.31984877586365</v>
+        <v>32.31184816360474</v>
       </c>
       <c r="B330" t="n">
-        <v>9.022157e-07</v>
+        <v>0.000117696</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>32.41385388374329</v>
+        <v>32.40785360336304</v>
       </c>
       <c r="B331" t="n">
-        <v>9.01126e-07</v>
+        <v>0.0001176772</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>32.50285935401917</v>
+        <v>32.51986002922058</v>
       </c>
       <c r="B332" t="n">
-        <v>8.998765e-07</v>
+        <v>0.000117679</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>32.60086488723755</v>
+        <v>32.6018648147583</v>
       </c>
       <c r="B333" t="n">
-        <v>9.016019e-07</v>
+        <v>0.0001176291</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>32.70887088775635</v>
+        <v>32.70587086677551</v>
       </c>
       <c r="B334" t="n">
-        <v>9.01928e-07</v>
+        <v>0.0001175561</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>32.80987668037415</v>
+        <v>32.8038763999939</v>
       </c>
       <c r="B335" t="n">
-        <v>9.026779e-07</v>
+        <v>0.0001175155</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>32.91888284683228</v>
+        <v>32.9118824005127</v>
       </c>
       <c r="B336" t="n">
-        <v>9.034466e-07</v>
+        <v>0.0001173989</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>33.01188802719116</v>
+        <v>33.00588774681091</v>
       </c>
       <c r="B337" t="n">
-        <v>9.022512e-07</v>
+        <v>0.0001173984</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>33.10189342498779</v>
+        <v>33.12189435958862</v>
       </c>
       <c r="B338" t="n">
-        <v>9.03204e-07</v>
+        <v>0.0001173013</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>33.20489931106567</v>
+        <v>33.20789933204651</v>
       </c>
       <c r="B339" t="n">
-        <v>9.01542e-07</v>
+        <v>0.0001173831</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>33.31190538406372</v>
+        <v>33.32190585136414</v>
       </c>
       <c r="B340" t="n">
-        <v>9.023913e-07</v>
+        <v>0.0001171988</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>33.40591073036194</v>
+        <v>33.4249119758606</v>
       </c>
       <c r="B341" t="n">
-        <v>9.015429e-07</v>
+        <v>0.0001171897</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.5089168548584</v>
+        <v>33.50491642951965</v>
       </c>
       <c r="B342" t="n">
-        <v>9.014017e-07</v>
+        <v>0.000117201</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.61392259597778</v>
+        <v>33.6119225025177</v>
       </c>
       <c r="B343" t="n">
-        <v>9.004182e-07</v>
+        <v>0.0001171899</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.70392775535583</v>
+        <v>33.71892857551575</v>
       </c>
       <c r="B344" t="n">
-        <v>9.006209e-07</v>
+        <v>0.0001170664</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>33.80093336105347</v>
+        <v>33.80593347549438</v>
       </c>
       <c r="B345" t="n">
-        <v>8.996811e-07</v>
+        <v>0.0001170397</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>33.90093898773193</v>
+        <v>33.91093969345093</v>
       </c>
       <c r="B346" t="n">
-        <v>9.000039e-07</v>
+        <v>0.0001170479</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>34.00594520568848</v>
+        <v>34.01894569396973</v>
       </c>
       <c r="B347" t="n">
-        <v>8.982724e-07</v>
+        <v>0.0001170049</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>34.10595083236694</v>
+        <v>34.10795092582703</v>
       </c>
       <c r="B348" t="n">
-        <v>8.979669e-07</v>
+        <v>0.0001171287</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>34.21095681190491</v>
+        <v>34.21195673942566</v>
       </c>
       <c r="B349" t="n">
-        <v>8.966023e-07</v>
+        <v>0.000116964</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>34.30196189880371</v>
+        <v>34.31996321678162</v>
       </c>
       <c r="B350" t="n">
-        <v>8.974659e-07</v>
+        <v>0.0001170242</v>
       </c>
     </row>
     <row r="351">
@@ -3233,383 +3233,383 @@
         <v>34.40996813774109</v>
       </c>
       <c r="B351" t="n">
-        <v>8.979445e-07</v>
+        <v>0.00011705</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>34.5139741897583</v>
+        <v>34.5089738368988</v>
       </c>
       <c r="B352" t="n">
-        <v>8.968911000000001e-07</v>
+        <v>0.0001170543</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>34.60397934913635</v>
+        <v>34.61698007583618</v>
       </c>
       <c r="B353" t="n">
-        <v>8.961604e-07</v>
+        <v>0.0001170474</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.71898579597473</v>
+        <v>34.71798586845398</v>
       </c>
       <c r="B354" t="n">
-        <v>8.978669999999999e-07</v>
+        <v>0.0001170742</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>34.82299184799194</v>
+        <v>34.8119912147522</v>
       </c>
       <c r="B355" t="n">
-        <v>8.959319e-07</v>
+        <v>0.0001171785</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>34.92999815940857</v>
+        <v>34.91799736022949</v>
       </c>
       <c r="B356" t="n">
-        <v>8.970952e-07</v>
+        <v>0.0001170857</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>35.01800298690796</v>
+        <v>35.0090024471283</v>
       </c>
       <c r="B357" t="n">
-        <v>8.968165e-07</v>
+        <v>0.0001171415</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>35.11200857162476</v>
+        <v>35.10600805282593</v>
       </c>
       <c r="B358" t="n">
-        <v>8.966899e-07</v>
+        <v>0.0001171747</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>35.20301365852356</v>
+        <v>35.20501351356506</v>
       </c>
       <c r="B359" t="n">
-        <v>8.960398e-07</v>
+        <v>0.000117218</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>35.30801939964294</v>
+        <v>35.31101989746094</v>
       </c>
       <c r="B360" t="n">
-        <v>8.967108e-07</v>
+        <v>0.0001172111</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>35.41502571105957</v>
+        <v>35.40102481842041</v>
       </c>
       <c r="B361" t="n">
-        <v>8.955362e-07</v>
+        <v>0.0001172496</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>35.50503087043762</v>
+        <v>35.50003051757812</v>
       </c>
       <c r="B362" t="n">
-        <v>8.965431e-07</v>
+        <v>0.0001173659</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>35.60703659057617</v>
+        <v>35.60903692245483</v>
       </c>
       <c r="B363" t="n">
-        <v>8.964705e-07</v>
+        <v>0.0001172802</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35.70804262161255</v>
+        <v>35.70504212379456</v>
       </c>
       <c r="B364" t="n">
-        <v>8.966605e-07</v>
+        <v>0.000117188</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>35.80704784393311</v>
+        <v>35.8050479888916</v>
       </c>
       <c r="B365" t="n">
-        <v>8.964383e-07</v>
+        <v>0.0001172716</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>35.90505361557007</v>
+        <v>35.91005420684814</v>
       </c>
       <c r="B366" t="n">
-        <v>8.945877e-07</v>
+        <v>0.0001171893</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>36.00605964660645</v>
+        <v>36.00005912780762</v>
       </c>
       <c r="B367" t="n">
-        <v>8.91981e-07</v>
+        <v>0.0001171436</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>36.10606527328491</v>
+        <v>36.10406494140625</v>
       </c>
       <c r="B368" t="n">
-        <v>8.955851e-07</v>
+        <v>0.0001172269</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>36.20707106590271</v>
+        <v>36.21107125282288</v>
       </c>
       <c r="B369" t="n">
-        <v>8.935122e-07</v>
+        <v>0.0001172436</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>36.30807685852051</v>
+        <v>36.30107617378235</v>
       </c>
       <c r="B370" t="n">
-        <v>8.913833e-07</v>
+        <v>0.0001172021</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>36.40408229827881</v>
+        <v>36.40008187294006</v>
       </c>
       <c r="B371" t="n">
-        <v>8.909757e-07</v>
+        <v>0.0001173407</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.50508809089661</v>
+        <v>36.50208806991577</v>
       </c>
       <c r="B372" t="n">
-        <v>8.870392e-07</v>
+        <v>0.0001172938</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>36.61409425735474</v>
+        <v>36.60309362411499</v>
       </c>
       <c r="B373" t="n">
-        <v>8.853789e-07</v>
+        <v>0.0001173337</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>36.70509958267212</v>
+        <v>36.70009899139404</v>
       </c>
       <c r="B374" t="n">
-        <v>8.892788e-07</v>
+        <v>0.000117542</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>36.80210518836975</v>
+        <v>36.80910539627075</v>
       </c>
       <c r="B375" t="n">
-        <v>8.930684999999999e-07</v>
+        <v>0.0001175899</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>36.9111111164093</v>
+        <v>36.90011072158813</v>
       </c>
       <c r="B376" t="n">
-        <v>8.892336e-07</v>
+        <v>0.0001175918</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>37.00311660766602</v>
+        <v>37.01011681556702</v>
       </c>
       <c r="B377" t="n">
-        <v>8.876677e-07</v>
+        <v>0.0001176232</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>37.10612225532532</v>
+        <v>37.11612296104431</v>
       </c>
       <c r="B378" t="n">
-        <v>8.913458e-07</v>
+        <v>0.0001177125</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>37.21212863922119</v>
+        <v>37.20812821388245</v>
       </c>
       <c r="B379" t="n">
-        <v>8.897059e-07</v>
+        <v>0.0001176769</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>37.30413365364075</v>
+        <v>37.31913471221924</v>
       </c>
       <c r="B380" t="n">
-        <v>8.89308e-07</v>
+        <v>0.0001176884</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>37.40613961219788</v>
+        <v>37.40013933181763</v>
       </c>
       <c r="B381" t="n">
-        <v>8.892458e-07</v>
+        <v>0.000117716</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>37.51214575767517</v>
+        <v>37.50514531135559</v>
       </c>
       <c r="B382" t="n">
-        <v>8.897651e-07</v>
+        <v>0.0001178681</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>37.60315084457397</v>
+        <v>37.60615086555481</v>
       </c>
       <c r="B383" t="n">
-        <v>8.907193e-07</v>
+        <v>0.0001179228</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>37.70915699005127</v>
+        <v>37.71015691757202</v>
       </c>
       <c r="B384" t="n">
-        <v>8.906151e-07</v>
+        <v>0.0001178507</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37.81716299057007</v>
+        <v>37.80216217041016</v>
       </c>
       <c r="B385" t="n">
-        <v>8.911884e-07</v>
+        <v>0.0001179332</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>37.90716814994812</v>
+        <v>37.90316796302795</v>
       </c>
       <c r="B386" t="n">
-        <v>8.905662e-07</v>
+        <v>0.0001179347</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>38.01217436790466</v>
+        <v>38.00917410850525</v>
       </c>
       <c r="B387" t="n">
-        <v>8.916024e-07</v>
+        <v>0.0001178532</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38.1161801815033</v>
+        <v>38.10017919540405</v>
       </c>
       <c r="B388" t="n">
-        <v>8.895679e-07</v>
+        <v>0.0001178985</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>38.20818543434143</v>
+        <v>38.21018552780151</v>
       </c>
       <c r="B389" t="n">
-        <v>8.919574e-07</v>
+        <v>0.0001178601</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>38.32019186019897</v>
+        <v>38.31319141387939</v>
       </c>
       <c r="B390" t="n">
-        <v>8.934558e-07</v>
+        <v>0.0001179052</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>38.40219640731812</v>
+        <v>38.40419673919678</v>
       </c>
       <c r="B391" t="n">
-        <v>8.937451e-07</v>
+        <v>0.0001179526</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>38.50920271873474</v>
+        <v>38.50620245933533</v>
       </c>
       <c r="B392" t="n">
-        <v>8.944539e-07</v>
+        <v>0.0001179538</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>38.62220931053162</v>
+        <v>38.60520815849304</v>
       </c>
       <c r="B393" t="n">
-        <v>8.927155000000001e-07</v>
+        <v>0.0001179255</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>38.70021343231201</v>
+        <v>38.71821475028992</v>
       </c>
       <c r="B394" t="n">
-        <v>8.910583e-07</v>
+        <v>0.0001180368</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>38.80521965026855</v>
+        <v>38.82222056388855</v>
       </c>
       <c r="B395" t="n">
-        <v>8.866236e-07</v>
+        <v>0.00011794</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>38.90622544288635</v>
+        <v>38.90322542190552</v>
       </c>
       <c r="B396" t="n">
-        <v>8.890642e-07</v>
+        <v>0.0001180465</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>39.01423168182373</v>
+        <v>39.00423097610474</v>
       </c>
       <c r="B397" t="n">
-        <v>8.871008e-07</v>
+        <v>0.000117942</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.10523676872253</v>
+        <v>39.10423684120178</v>
       </c>
       <c r="B398" t="n">
-        <v>8.863092e-07</v>
+        <v>0.0001180215</v>
       </c>
     </row>
     <row r="399">
@@ -3617,71 +3617,71 @@
         <v>39.20824265480042</v>
       </c>
       <c r="B399" t="n">
-        <v>8.880332e-07</v>
+        <v>0.0001180262</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>39.31424880027771</v>
+        <v>39.30424809455872</v>
       </c>
       <c r="B400" t="n">
-        <v>8.854493e-07</v>
+        <v>0.0001181164</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>39.40625405311584</v>
+        <v>39.40425395965576</v>
       </c>
       <c r="B401" t="n">
-        <v>8.85463e-07</v>
+        <v>0.000118142</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>39.50225949287415</v>
+        <v>39.50825977325439</v>
       </c>
       <c r="B402" t="n">
-        <v>8.875303e-07</v>
+        <v>0.00011802</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>39.61126565933228</v>
+        <v>39.60226511955261</v>
       </c>
       <c r="B403" t="n">
-        <v>8.866945e-07</v>
+        <v>0.0001180349</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>39.70227098464966</v>
+        <v>39.70327091217041</v>
       </c>
       <c r="B404" t="n">
-        <v>8.866697e-07</v>
+        <v>0.0001180405</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>39.80527663230896</v>
+        <v>39.80927705764771</v>
       </c>
       <c r="B405" t="n">
-        <v>8.872385e-07</v>
+        <v>0.0001180867</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>39.91328310966492</v>
+        <v>39.90028214454651</v>
       </c>
       <c r="B406" t="n">
-        <v>8.86946e-07</v>
+        <v>0.0001182256</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>40.00528812408447</v>
+        <v>40.00028800964355</v>
       </c>
       <c r="B407" t="n">
-        <v>8.876248000000001e-07</v>
+        <v>0.0001182561</v>
       </c>
     </row>
   </sheetData>
